--- a/municipality population.xlsx
+++ b/municipality population.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,115 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t xml:space="preserve">Audubon Park  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrington  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bellmawr  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin Borough  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin Township  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brooklawn  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camden  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cherry Hill  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chesilhurst  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clementon  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collingswood  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibbsboro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloucester Township  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloucester City  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haddon Township  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haddon Heights  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haddonfield  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi-Nella  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurel Springs  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lawnside  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lindenwold  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnolia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchantville  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mount Ephraim  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaklyn  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pennsauken  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pine Hill  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pine Valley  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runnemede  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somerdale  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stratford  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tavistock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voorhees  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waterford  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winslow  </t>
-  </si>
-  <si>
-    <t>Woodlynne.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Municipality</t>
   </si>
@@ -140,7 +33,112 @@
     <t>population</t>
   </si>
   <si>
-    <t xml:space="preserve">Audubon Borough  </t>
+    <t xml:space="preserve">Audubon borough  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audubon Park borough    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrington borough  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellmawr borough    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin borough  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin township  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brooklawn borough  </t>
+  </si>
+  <si>
+    <t>Camden City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherry Hill Township  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chesilhurst borough   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clementon borough  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collingswood borough  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibbsboro borough  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloucester township  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloucester City City  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haddon township  </t>
+  </si>
+  <si>
+    <t>Haddonfield borough</t>
+  </si>
+  <si>
+    <t>Haddon Heights borough</t>
+  </si>
+  <si>
+    <t>Hi-Nella borough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurel Springs borough  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawnside borough  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindenwold borough </t>
+  </si>
+  <si>
+    <t>Magnolia borough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchantville borough  </t>
+  </si>
+  <si>
+    <t>Mount Ephraim borough</t>
+  </si>
+  <si>
+    <t>Oaklyn borough</t>
+  </si>
+  <si>
+    <t>Pennsauken township</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pine Hill borough </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runnemede borough </t>
+  </si>
+  <si>
+    <t>Somerdale borough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stratford borough </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tavistock borough </t>
+  </si>
+  <si>
+    <t>Voorhees township</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterford township </t>
+  </si>
+  <si>
+    <t>Winslow township</t>
+  </si>
+  <si>
+    <t>Woodlynne borough</t>
   </si>
 </sst>
 </file>
@@ -488,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,39 +497,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>8751</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>994</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>7096</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>11771</v>
@@ -539,7 +537,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>7564</v>
@@ -547,15 +545,15 @@
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>5999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1821</v>
@@ -563,47 +561,47 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>71377</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>77930</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1557</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>5587</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>14261</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>2247</v>
@@ -611,7 +609,7 @@
     </row>
     <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>66502</v>
@@ -619,7 +617,7 @@
     </row>
     <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>11553</v>
@@ -627,7 +625,7 @@
     </row>
     <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>15523</v>
@@ -635,171 +633,166 @@
     </row>
     <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B18">
+        <v>12632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
         <v>7541</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>12632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>931</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1992</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>3314</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>21784</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>4373</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>3834</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>4672</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>3956</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>37439</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>10826</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>8372</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>5590</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>7037</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>31303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>10480</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>40206</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>2921</v>
-      </c>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -811,4 +804,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>